--- a/data/trans_orig/P04D_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P04D_R-Provincia-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>42287</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>31689</v>
+        <v>31047</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>56481</v>
+        <v>56312</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1434725320590595</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1075152095557513</v>
+        <v>0.1053382508567635</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1916317876470563</v>
+        <v>0.1910572622143097</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>49</v>
@@ -764,19 +764,19 @@
         <v>54976</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>41848</v>
+        <v>42119</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>70240</v>
+        <v>71117</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1913918213013319</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.145686279707446</v>
+        <v>0.1466296572363112</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2445293673009035</v>
+        <v>0.2475833062206156</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>90</v>
@@ -785,19 +785,19 @@
         <v>97263</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>80081</v>
+        <v>79959</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>118556</v>
+        <v>115279</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1671236962989089</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1376000882755881</v>
+        <v>0.1373902075191721</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2037097798115737</v>
+        <v>0.1980792767496174</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>175350</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>157001</v>
+        <v>157496</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>191585</v>
+        <v>191421</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.5949337128218812</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5326806128099348</v>
+        <v>0.5343600910459056</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6500184486678505</v>
+        <v>0.649461163045132</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>137</v>
@@ -835,19 +835,19 @@
         <v>157650</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>136678</v>
+        <v>139295</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>175983</v>
+        <v>175873</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.5488341433819117</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.4758241043875524</v>
+        <v>0.4849358129338841</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6126591877359802</v>
+        <v>0.6122764225496437</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>302</v>
@@ -856,19 +856,19 @@
         <v>332999</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>309069</v>
+        <v>307787</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>355830</v>
+        <v>358347</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.5721806940385969</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.5310626342950689</v>
+        <v>0.528858778867156</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6114103544583108</v>
+        <v>0.6157343415879786</v>
       </c>
     </row>
     <row r="6">
@@ -885,19 +885,19 @@
         <v>77102</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>62301</v>
+        <v>62235</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>93684</v>
+        <v>93756</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2615937551190592</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2113776748592498</v>
+        <v>0.2111547665220019</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3178567895111003</v>
+        <v>0.3180982356313063</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>70</v>
@@ -906,19 +906,19 @@
         <v>74619</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>59222</v>
+        <v>60189</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>91142</v>
+        <v>90179</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2597740353167563</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2061740837703709</v>
+        <v>0.2095386505334539</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3172963945169094</v>
+        <v>0.3139454975164489</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>146</v>
@@ -927,19 +927,19 @@
         <v>151720</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>132643</v>
+        <v>130549</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>176336</v>
+        <v>173293</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2606956096624942</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2279157683009898</v>
+        <v>0.2243175924911589</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3029914713678408</v>
+        <v>0.2977631219779773</v>
       </c>
     </row>
     <row r="7">
@@ -1031,19 +1031,19 @@
         <v>41137</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>29084</v>
+        <v>29542</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>55072</v>
+        <v>55848</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.08137394910664006</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.05753106389985921</v>
+        <v>0.05843848375497442</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1089391731059172</v>
+        <v>0.1104751268582452</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>40</v>
@@ -1052,19 +1052,19 @@
         <v>44892</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>33132</v>
+        <v>33347</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>58955</v>
+        <v>60815</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.08570962666910258</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.06325750330686324</v>
+        <v>0.06366762590517311</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1125592995481744</v>
+        <v>0.116110985447619</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>77</v>
@@ -1073,19 +1073,19 @@
         <v>86028</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>68564</v>
+        <v>68583</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>106344</v>
+        <v>107952</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.08358019922898695</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.06661324365567281</v>
+        <v>0.06663172156618162</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1033173386534484</v>
+        <v>0.1048795485581122</v>
       </c>
     </row>
     <row r="9">
@@ -1102,19 +1102,19 @@
         <v>342585</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>320679</v>
+        <v>321213</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>364266</v>
+        <v>364308</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.6776782400218582</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.6343457995358973</v>
+        <v>0.6354018107800079</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.7205673638009147</v>
+        <v>0.7206499565000285</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>331</v>
@@ -1123,19 +1123,19 @@
         <v>362840</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>342152</v>
+        <v>340609</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>384684</v>
+        <v>383285</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.6927528172233361</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.6532542489117005</v>
+        <v>0.6503079428346459</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.7344600608581962</v>
+        <v>0.7317877035913073</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>650</v>
@@ -1144,19 +1144,19 @@
         <v>705424</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>677631</v>
+        <v>671981</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>737104</v>
+        <v>735445</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.6853490797731885</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.6583470307573795</v>
+        <v>0.6528571247381578</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.7161269816822072</v>
+        <v>0.7145153372772022</v>
       </c>
     </row>
     <row r="10">
@@ -1173,19 +1173,19 @@
         <v>121806</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>102522</v>
+        <v>102925</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>142678</v>
+        <v>141291</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2409478108715018</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2028016097605981</v>
+        <v>0.2035997073604877</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2822363300175842</v>
+        <v>0.2794915960513541</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>109</v>
@@ -1194,19 +1194,19 @@
         <v>116034</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>95901</v>
+        <v>97800</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>135145</v>
+        <v>136077</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2215375561075613</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1830986642925724</v>
+        <v>0.1867242053598576</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2580253129658227</v>
+        <v>0.2598051491231823</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>225</v>
@@ -1215,19 +1215,19 @@
         <v>237839</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>211192</v>
+        <v>210413</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>263749</v>
+        <v>266230</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2310707209978246</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2051814561645159</v>
+        <v>0.2044249534654974</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2562432881655925</v>
+        <v>0.2586536574859427</v>
       </c>
     </row>
     <row r="11">
@@ -1319,19 +1319,19 @@
         <v>2847</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>936</v>
+        <v>931</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>8489</v>
+        <v>7523</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.008784409016277505</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.002889487342411377</v>
+        <v>0.002873518815155057</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.02619579700913217</v>
+        <v>0.02321653686456782</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>3</v>
@@ -1340,19 +1340,19 @@
         <v>3183</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0</v>
+        <v>968</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>8490</v>
+        <v>8605</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.009334422143269983</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0</v>
+        <v>0.002838349534567073</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.02489451277738432</v>
+        <v>0.02523249497104443</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>6</v>
@@ -1361,19 +1361,19 @@
         <v>6030</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>2858</v>
+        <v>2844</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>13243</v>
+        <v>12969</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.009066434376969848</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.004296988414942456</v>
+        <v>0.004276058533231346</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.01991171082952066</v>
+        <v>0.01950028223737568</v>
       </c>
     </row>
     <row r="13">
@@ -1390,19 +1390,19 @@
         <v>244482</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>229162</v>
+        <v>227582</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>259785</v>
+        <v>259881</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.7544681701971381</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.7071899555311226</v>
+        <v>0.7023152650464657</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.8016925034197088</v>
+        <v>0.8019891971399279</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>249</v>
@@ -1411,19 +1411,19 @@
         <v>269176</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>251103</v>
+        <v>252440</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>283296</v>
+        <v>282986</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.789326258288075</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.7363288077950689</v>
+        <v>0.740249317127317</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.8307314262369594</v>
+        <v>0.8298230520013518</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>489</v>
@@ -1432,19 +1432,19 @@
         <v>513658</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>493666</v>
+        <v>490202</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>536812</v>
+        <v>535527</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.7723420433547625</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.7422808315124237</v>
+        <v>0.7370723763511395</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.8071557637566287</v>
+        <v>0.805223424637482</v>
       </c>
     </row>
     <row r="14">
@@ -1461,19 +1461,19 @@
         <v>76717</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>62159</v>
+        <v>61946</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>92168</v>
+        <v>93778</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2367474207865844</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1918209296121192</v>
+        <v>0.1911643611684326</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2844299748542299</v>
+        <v>0.2893964856203925</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>65</v>
@@ -1482,19 +1482,19 @@
         <v>68661</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>54473</v>
+        <v>55863</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>84932</v>
+        <v>85953</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.201339319568655</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1597343983014006</v>
+        <v>0.1638106547909141</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2490516390684727</v>
+        <v>0.2520470527127812</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>141</v>
@@ -1503,19 +1503,19 @@
         <v>145378</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>123480</v>
+        <v>123950</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>166178</v>
+        <v>168933</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2185915222682676</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1856657271631766</v>
+        <v>0.1863721077508029</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2498673007481212</v>
+        <v>0.254009371666158</v>
       </c>
     </row>
     <row r="15">
@@ -1607,19 +1607,19 @@
         <v>10456</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>4156</v>
+        <v>4095</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>22242</v>
+        <v>21559</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02795954120556017</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01111306197775638</v>
+        <v>0.01095104065878377</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.05947392846953975</v>
+        <v>0.05764766167148638</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>10</v>
@@ -1628,19 +1628,19 @@
         <v>10251</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>5941</v>
+        <v>5371</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>18766</v>
+        <v>18803</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02635639923897614</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01527478027752741</v>
+        <v>0.0138079855994019</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.04824743444154062</v>
+        <v>0.04834207502692757</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>17</v>
@@ -1649,19 +1649,19 @@
         <v>20708</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>12214</v>
+        <v>12324</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>33997</v>
+        <v>34411</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02714224325949658</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01600866549493123</v>
+        <v>0.01615282367333295</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04456135688747012</v>
+        <v>0.04510382050627018</v>
       </c>
     </row>
     <row r="17">
@@ -1678,19 +1678,19 @@
         <v>219199</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>198308</v>
+        <v>200457</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>237986</v>
+        <v>239641</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.5861218773883869</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.5302610610209219</v>
+        <v>0.5360077285201688</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6363563561583973</v>
+        <v>0.6407825459503383</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>229</v>
@@ -1699,19 +1699,19 @@
         <v>241790</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>221804</v>
+        <v>221963</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>260843</v>
+        <v>259988</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6216467247222113</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.5702621314889227</v>
+        <v>0.5706714677059721</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6706315004730967</v>
+        <v>0.668434354573323</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>433</v>
@@ -1720,19 +1720,19 @@
         <v>460989</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>432237</v>
+        <v>433907</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>488442</v>
+        <v>494533</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6042328029117351</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.5665459961067315</v>
+        <v>0.5687357449808903</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6402166577283067</v>
+        <v>0.6481992116405492</v>
       </c>
     </row>
     <row r="18">
@@ -1749,19 +1749,19 @@
         <v>144327</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>124875</v>
+        <v>124159</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>163740</v>
+        <v>163166</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.3859185814060529</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.3339075066148846</v>
+        <v>0.3319911742350598</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.4378293410192461</v>
+        <v>0.4362938015656176</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>132</v>
@@ -1770,19 +1770,19 @@
         <v>136910</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>118490</v>
+        <v>119237</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>157644</v>
+        <v>156427</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.3519968760388126</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.3046408027124048</v>
+        <v>0.3065605245999221</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.4053066285316641</v>
+        <v>0.4021754663348979</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>265</v>
@@ -1791,19 +1791,19 @@
         <v>281236</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>254543</v>
+        <v>250774</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>310191</v>
+        <v>307844</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.3686249538287683</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.3336375382045692</v>
+        <v>0.3286973648585154</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.4065770253016563</v>
+        <v>0.4035006401757973</v>
       </c>
     </row>
     <row r="19">
@@ -1895,19 +1895,19 @@
         <v>9520</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>4252</v>
+        <v>4339</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>16875</v>
+        <v>17454</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.04477317229285535</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.01999608389793302</v>
+        <v>0.0204066147517182</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.07936705030411272</v>
+        <v>0.08209239120100204</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>12</v>
@@ -1916,19 +1916,19 @@
         <v>12281</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>7066</v>
+        <v>6234</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>21525</v>
+        <v>20695</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.0559262278721942</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.03217578537502657</v>
+        <v>0.0283880366903712</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.09802188509752456</v>
+        <v>0.09424443878142043</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>21</v>
@@ -1937,19 +1937,19 @@
         <v>21800</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>13889</v>
+        <v>13961</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>31689</v>
+        <v>33105</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.05043966791107898</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.03213496361579184</v>
+        <v>0.03230068184469538</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.07331892461941346</v>
+        <v>0.07659462224471331</v>
       </c>
     </row>
     <row r="21">
@@ -1966,19 +1966,19 @@
         <v>131756</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>115734</v>
+        <v>116363</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>145513</v>
+        <v>146442</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.6196818257740559</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.5443292236425763</v>
+        <v>0.54728738272949</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.6843854899941295</v>
+        <v>0.6887546583634662</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>114</v>
@@ -1987,19 +1987,19 @@
         <v>116241</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>100273</v>
+        <v>99886</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>131156</v>
+        <v>129229</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.5293545699091607</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.4566347446865318</v>
+        <v>0.4548731509724258</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.5972750921845665</v>
+        <v>0.5884965521529172</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>235</v>
@@ -2008,19 +2008,19 @@
         <v>247997</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>226953</v>
+        <v>227619</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>269880</v>
+        <v>269741</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.5737895592177249</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.5250994276053002</v>
+        <v>0.5266421381145299</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.624421183993188</v>
+        <v>0.624098433448143</v>
       </c>
     </row>
     <row r="22">
@@ -2037,19 +2037,19 @@
         <v>71343</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>56553</v>
+        <v>57011</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>87465</v>
+        <v>85623</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3355450019330887</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2659818206911534</v>
+        <v>0.2681366472041677</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4113731633356621</v>
+        <v>0.4027062509777737</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>86</v>
@@ -2058,19 +2058,19 @@
         <v>91069</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>76917</v>
+        <v>78073</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>106981</v>
+        <v>107022</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.4147192022186451</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3502733229926417</v>
+        <v>0.3555395904474782</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4871815507656904</v>
+        <v>0.4873688392437825</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>152</v>
@@ -2079,19 +2079,19 @@
         <v>162412</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>140605</v>
+        <v>142965</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>183325</v>
+        <v>182930</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3757707728711961</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3253178107221031</v>
+        <v>0.3307785540133339</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.4241590634386483</v>
+        <v>0.4232444436263683</v>
       </c>
     </row>
     <row r="23">
@@ -2186,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>6709</v>
+        <v>6334</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.00700352626877748</v>
@@ -2195,7 +2195,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.02448715956848536</v>
+        <v>0.02311985280904068</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>2</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>7110</v>
+        <v>7092</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.007352253368145725</v>
@@ -2216,7 +2216,7 @@
         <v>0</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.02539086681395272</v>
+        <v>0.02532641805875702</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>4</v>
@@ -2225,19 +2225,19 @@
         <v>3978</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>9981</v>
+        <v>9857</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.007179793926164179</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.00176603201467097</v>
+        <v>0.001762033186622223</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.01801531793646802</v>
+        <v>0.01779170016986032</v>
       </c>
     </row>
     <row r="25">
@@ -2254,19 +2254,19 @@
         <v>188061</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>171117</v>
+        <v>170543</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>202568</v>
+        <v>202983</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.6864021638667638</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.6245569938388038</v>
+        <v>0.6224627732587085</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.7393521905241438</v>
+        <v>0.7408665049020788</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>196</v>
@@ -2275,19 +2275,19 @@
         <v>200183</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>183749</v>
+        <v>183206</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>214068</v>
+        <v>215038</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.7148598122633454</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.6561724398724814</v>
+        <v>0.6542354584769254</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.7644443573216941</v>
+        <v>0.7679080004439331</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>377</v>
@@ -2296,19 +2296,19 @@
         <v>388244</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>364716</v>
+        <v>365574</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>409262</v>
+        <v>410609</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.7007863715371372</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.6583185124151366</v>
+        <v>0.6598672560465509</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.7387240901837079</v>
+        <v>0.7411554513839307</v>
       </c>
     </row>
     <row r="26">
@@ -2325,19 +2325,19 @@
         <v>84001</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>69826</v>
+        <v>68080</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>99934</v>
+        <v>100681</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.3065943098644587</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2548574627477689</v>
+        <v>0.2484847277404179</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3647497386886802</v>
+        <v>0.3674736723033479</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>71</v>
@@ -2346,19 +2346,19 @@
         <v>77789</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>63986</v>
+        <v>62614</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>94566</v>
+        <v>93685</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2777879343685089</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2284952203736624</v>
+        <v>0.2235966088298433</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3376982952733864</v>
+        <v>0.334552079096703</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>149</v>
@@ -2367,19 +2367,19 @@
         <v>161790</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>141983</v>
+        <v>140572</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>184467</v>
+        <v>184400</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2920338345366986</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2562818636645255</v>
+        <v>0.2537336951831763</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3329649204573209</v>
+        <v>0.3328441938973297</v>
       </c>
     </row>
     <row r="27">
@@ -2471,19 +2471,19 @@
         <v>11683</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>6251</v>
+        <v>6335</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>19741</v>
+        <v>20888</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.01762743153274454</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.009430928727486987</v>
+        <v>0.009557663636334878</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.02978549355314334</v>
+        <v>0.03151574656612993</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>16</v>
@@ -2492,19 +2492,19 @@
         <v>17354</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>10468</v>
+        <v>10213</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>28132</v>
+        <v>27569</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.02501150061954862</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.01508742428063042</v>
+        <v>0.01471933989227726</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.0405451947472578</v>
+        <v>0.03973327888577651</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>27</v>
@@ -2513,19 +2513,19 @@
         <v>29038</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>18939</v>
+        <v>20077</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>40902</v>
+        <v>41768</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.02140400782244796</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.01396052408517744</v>
+        <v>0.01479898327074811</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.03014981694521924</v>
+        <v>0.03078783963659607</v>
       </c>
     </row>
     <row r="29">
@@ -2542,19 +2542,19 @@
         <v>483165</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>455142</v>
+        <v>457434</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>506399</v>
+        <v>504879</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.7289880458476747</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.68670882932782</v>
+        <v>0.6901657148293263</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.7640436021354479</v>
+        <v>0.7617497896437107</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>460</v>
@@ -2563,19 +2563,19 @@
         <v>503829</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>479191</v>
+        <v>478879</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>527222</v>
+        <v>526643</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.7261315179782326</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.6906233858984706</v>
+        <v>0.6901740699203813</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.7598463849702074</v>
+        <v>0.7590117777404808</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>914</v>
@@ -2584,19 +2584,19 @@
         <v>986993</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>953320</v>
+        <v>954542</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1022515</v>
+        <v>1022200</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.7275270769298878</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.7027064405474494</v>
+        <v>0.7036069985199133</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.7537108187229976</v>
+        <v>0.7534788373871221</v>
       </c>
     </row>
     <row r="30">
@@ -2613,19 +2613,19 @@
         <v>167940</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>145833</v>
+        <v>144755</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>195334</v>
+        <v>193549</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2533845226195807</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.220029951913446</v>
+        <v>0.2184030911369699</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2947157507273901</v>
+        <v>0.2920222983186147</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>160</v>
@@ -2634,19 +2634,19 @@
         <v>172670</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>148382</v>
+        <v>150587</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>195651</v>
+        <v>197444</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2488569814022187</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2138521916256487</v>
+        <v>0.2170303615104866</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2819769812762438</v>
+        <v>0.2845623235787914</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>313</v>
@@ -2655,19 +2655,19 @@
         <v>340610</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>308981</v>
+        <v>304234</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>374107</v>
+        <v>372418</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2510689152476642</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2277547796593705</v>
+        <v>0.2242556178102589</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2757599321249169</v>
+        <v>0.2745149078550056</v>
       </c>
     </row>
     <row r="31">
@@ -2759,19 +2759,19 @@
         <v>22268</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>14679</v>
+        <v>14360</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>34034</v>
+        <v>35214</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.02858144857709958</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.0188413443306024</v>
+        <v>0.01843106669431525</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.04368412560270862</v>
+        <v>0.04519847027325363</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>14</v>
@@ -2780,19 +2780,19 @@
         <v>14579</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>8215</v>
+        <v>8230</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>23409</v>
+        <v>23433</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.01769572636715241</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.009971294939564649</v>
+        <v>0.009989277413670174</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.02841434425955141</v>
+        <v>0.02844298360044304</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>35</v>
@@ -2801,19 +2801,19 @@
         <v>36846</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>26317</v>
+        <v>26400</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>50895</v>
+        <v>50440</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.02298662166154002</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.01641787421037014</v>
+        <v>0.01646955537590623</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.03175063215911948</v>
+        <v>0.03146705994176555</v>
       </c>
     </row>
     <row r="33">
@@ -2830,19 +2830,19 @@
         <v>371978</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>342370</v>
+        <v>343729</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>401814</v>
+        <v>400986</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.477447487309314</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.4394444574161956</v>
+        <v>0.4411881210718104</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.5157425104385852</v>
+        <v>0.5146797397849404</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>402</v>
@@ -2851,19 +2851,19 @@
         <v>443478</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>413207</v>
+        <v>412574</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>471746</v>
+        <v>471877</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.5382975472111188</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.5015542350989483</v>
+        <v>0.5007854914444475</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.5726092077407992</v>
+        <v>0.5727680618303695</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>738</v>
@@ -2872,19 +2872,19 @@
         <v>815456</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>773677</v>
+        <v>774345</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>857427</v>
+        <v>857296</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.5087219904048399</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.4826580434279171</v>
+        <v>0.4830744936246862</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.5349051338942168</v>
+        <v>0.5348236090573745</v>
       </c>
     </row>
     <row r="34">
@@ -2901,19 +2901,19 @@
         <v>384852</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>354605</v>
+        <v>355920</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>411708</v>
+        <v>414190</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.4939710641135864</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.4551477963074105</v>
+        <v>0.4568356004606706</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.5284421524765879</v>
+        <v>0.5316278183970027</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>341</v>
@@ -2922,19 +2922,19 @@
         <v>365796</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>336834</v>
+        <v>337108</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>396957</v>
+        <v>397798</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.4440067264217288</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.4088515967427145</v>
+        <v>0.4091844955751662</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.4818301041286411</v>
+        <v>0.4828512031931711</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>701</v>
@@ -2943,19 +2943,19 @@
         <v>750648</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>708495</v>
+        <v>708645</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>790050</v>
+        <v>793152</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.46829138793362</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.4419941955416749</v>
+        <v>0.44208744143071</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.4928724984234905</v>
+        <v>0.4948072510673291</v>
       </c>
     </row>
     <row r="35">
@@ -3047,19 +3047,19 @@
         <v>142116</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>118076</v>
+        <v>119009</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>169699</v>
+        <v>169086</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.04147215668289891</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.03445685488922205</v>
+        <v>0.03472899749775311</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.04952132051060241</v>
+        <v>0.0493425360695507</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>146</v>
@@ -3068,19 +3068,19 @@
         <v>159575</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>133250</v>
+        <v>137064</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>186663</v>
+        <v>187281</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.04484583965536622</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.03744753502678336</v>
+        <v>0.03851932523861787</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.05245832273114692</v>
+        <v>0.05263215721308617</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>277</v>
@@ -3089,19 +3089,19 @@
         <v>301691</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>266052</v>
+        <v>267703</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>335590</v>
+        <v>338684</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.04319076164117992</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.03808863956928431</v>
+        <v>0.03832497001277393</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.04804381331245321</v>
+        <v>0.04848678403841673</v>
       </c>
     </row>
     <row r="37">
@@ -3118,19 +3118,19 @@
         <v>2156576</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>2097902</v>
+        <v>2097269</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>2212810</v>
+        <v>2216805</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.6293302895331054</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.612208012149543</v>
+        <v>0.6120235505871185</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.6457405224864627</v>
+        <v>0.6469061778886458</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>2118</v>
@@ -3139,19 +3139,19 @@
         <v>2295187</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>2239882</v>
+        <v>2240537</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>2355447</v>
+        <v>2353299</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.6450217478042946</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.6294792735502627</v>
+        <v>0.6296635307655051</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.6619567657388628</v>
+        <v>0.6613532997828454</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>4138</v>
@@ -3160,19 +3160,19 @@
         <v>4451763</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>4365032</v>
+        <v>4368369</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>4534450</v>
+        <v>4527074</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.6373237548965099</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.6249072100728844</v>
+        <v>0.6253849541912718</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.6491614770110109</v>
+        <v>0.6481055319882401</v>
       </c>
     </row>
     <row r="38">
@@ -3189,19 +3189,19 @@
         <v>1128087</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>1069904</v>
+        <v>1074843</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>1183869</v>
+        <v>1187782</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.3291975537839956</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.3122184677541782</v>
+        <v>0.3136599328582205</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.3454758539921698</v>
+        <v>0.3466174853410441</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>1034</v>
@@ -3210,19 +3210,19 @@
         <v>1103547</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>1047675</v>
+        <v>1048697</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>1156879</v>
+        <v>1155965</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.3101324125403392</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.2944304943658164</v>
+        <v>0.2947178460237233</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.3251204114821131</v>
+        <v>0.3248635892367646</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>2092</v>
@@ -3231,19 +3231,19 @@
         <v>2231634</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>2150068</v>
+        <v>2157199</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>2313783</v>
+        <v>2309596</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.3194854834623101</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.3078082258041611</v>
+        <v>0.3088291087769775</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.3312461390284757</v>
+        <v>0.3306466277785375</v>
       </c>
     </row>
     <row r="39">
@@ -3579,19 +3579,19 @@
         <v>145605</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>126527</v>
+        <v>128071</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>162024</v>
+        <v>162798</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4956575292318258</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4307135205741398</v>
+        <v>0.4359711711001845</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.55155023443003</v>
+        <v>0.554184430112091</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>123</v>
@@ -3600,19 +3600,19 @@
         <v>127895</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>112750</v>
+        <v>111346</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>144630</v>
+        <v>145571</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.442998497765153</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3905385400519955</v>
+        <v>0.385675888670139</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5009647950878542</v>
+        <v>0.5042223376326858</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>248</v>
@@ -3621,19 +3621,19 @@
         <v>273500</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>250578</v>
+        <v>250035</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>301435</v>
+        <v>298787</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4695566537510515</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.430203286565298</v>
+        <v>0.4292713854396584</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5175172773700792</v>
+        <v>0.5129702560801421</v>
       </c>
     </row>
     <row r="5">
@@ -3650,19 +3650,19 @@
         <v>45072</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>33948</v>
+        <v>33309</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>60280</v>
+        <v>58760</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.153431705341886</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1155625631041468</v>
+        <v>0.1133881473501977</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2051995604529175</v>
+        <v>0.2000263586594918</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>40</v>
@@ -3671,19 +3671,19 @@
         <v>42084</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>30389</v>
+        <v>31721</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>54096</v>
+        <v>57411</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1457696875964713</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1052597716228629</v>
+        <v>0.1098731423042242</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1873746842982044</v>
+        <v>0.1988570359985337</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>82</v>
@@ -3692,19 +3692,19 @@
         <v>87156</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>70423</v>
+        <v>70288</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>106482</v>
+        <v>104152</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1496339641845858</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1209055706675986</v>
+        <v>0.1206741841537192</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1828123608511097</v>
+        <v>0.1788124420627638</v>
       </c>
     </row>
     <row r="6">
@@ -3721,19 +3721,19 @@
         <v>103084</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>87619</v>
+        <v>84952</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>119446</v>
+        <v>119068</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3509107654262881</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2982672686980259</v>
+        <v>0.2891887049673514</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.4066106551256575</v>
+        <v>0.4053217555812694</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>114</v>
@@ -3742,19 +3742,19 @@
         <v>118724</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>102478</v>
+        <v>101804</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>134211</v>
+        <v>134129</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.4112318146383757</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.3549614450166831</v>
+        <v>0.352624089851218</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.4648772565085085</v>
+        <v>0.4645927246492499</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>213</v>
@@ -3763,19 +3763,19 @@
         <v>221808</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>198502</v>
+        <v>197962</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>245131</v>
+        <v>245046</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.3808093820643627</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.340796193293243</v>
+        <v>0.3398697808424098</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.4208518789096591</v>
+        <v>0.4207061998059238</v>
       </c>
     </row>
     <row r="7">
@@ -3867,19 +3867,19 @@
         <v>136028</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>114982</v>
+        <v>118217</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>156993</v>
+        <v>159850</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2706627222600592</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2287864528001245</v>
+        <v>0.2352220208353208</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3123773076607032</v>
+        <v>0.318062423705917</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>112</v>
@@ -3888,19 +3888,19 @@
         <v>120737</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>101345</v>
+        <v>101766</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>142361</v>
+        <v>140552</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2308176770467265</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1937460544581739</v>
+        <v>0.1945505462858033</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2721579593015109</v>
+        <v>0.2686995408240824</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>240</v>
@@ -3909,19 +3909,19 @@
         <v>256765</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>230365</v>
+        <v>227591</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>285601</v>
+        <v>284202</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2503418375570972</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2246017365101409</v>
+        <v>0.2218976311029947</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2784558123896791</v>
+        <v>0.2770920822767028</v>
       </c>
     </row>
     <row r="9">
@@ -3938,19 +3938,19 @@
         <v>175980</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>155642</v>
+        <v>154196</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>197475</v>
+        <v>196854</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.3501575722929354</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.3096895422924295</v>
+        <v>0.3068115531714808</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3929271931245596</v>
+        <v>0.3916912726499803</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>160</v>
@@ -3959,19 +3959,19 @@
         <v>169386</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>149062</v>
+        <v>147410</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>193691</v>
+        <v>191854</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.3238220438840817</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.2849670728608782</v>
+        <v>0.2818085529664267</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.3702863218568384</v>
+        <v>0.366775367362162</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>329</v>
@@ -3980,19 +3980,19 @@
         <v>345367</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>315140</v>
+        <v>313412</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>374035</v>
+        <v>375400</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.3367265112030907</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.3072565965204459</v>
+        <v>0.3055713094449954</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.3646777334362692</v>
+        <v>0.3660086601824215</v>
       </c>
     </row>
     <row r="10">
@@ -4009,19 +4009,19 @@
         <v>190566</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>167611</v>
+        <v>169826</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>213017</v>
+        <v>213355</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3791797054470055</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3335042614371451</v>
+        <v>0.3379113941242939</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4238512049821715</v>
+        <v>0.4245230026386947</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>212</v>
@@ -4030,19 +4030,19 @@
         <v>232961</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>207716</v>
+        <v>208614</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>254575</v>
+        <v>254328</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.4453602790691918</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3970995389277395</v>
+        <v>0.3988146656050227</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4866814824131023</v>
+        <v>0.4862085541091411</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>390</v>
@@ -4051,19 +4051,19 @@
         <v>423527</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>393031</v>
+        <v>394405</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>456847</v>
+        <v>460257</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4129316512398122</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3831987408611671</v>
+        <v>0.3845382524538478</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4454184424328593</v>
+        <v>0.4487426787262049</v>
       </c>
     </row>
     <row r="11">
@@ -4155,19 +4155,19 @@
         <v>6212</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2696</v>
+        <v>2720</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>12438</v>
+        <v>13068</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.01949981307922124</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.008463322997936068</v>
+        <v>0.008537274257586887</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.03904537405631871</v>
+        <v>0.04102066972348532</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>3</v>
@@ -4176,19 +4176,19 @@
         <v>2873</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>889</v>
+        <v>894</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>7541</v>
+        <v>7875</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.008543363983056912</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.002643255951074649</v>
+        <v>0.002659095639243209</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.02242145907815453</v>
+        <v>0.02341499483614248</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>10</v>
@@ -4197,19 +4197,19 @@
         <v>9085</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>4431</v>
+        <v>4341</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>16503</v>
+        <v>15626</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.01387315441937009</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.006765509180583473</v>
+        <v>0.006629512462703695</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.02519974874493357</v>
+        <v>0.0238609655416482</v>
       </c>
     </row>
     <row r="13">
@@ -4226,19 +4226,19 @@
         <v>255833</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>241683</v>
+        <v>240378</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>269337</v>
+        <v>268738</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.8030805643170305</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.7586603637170379</v>
+        <v>0.7545654642234765</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.8454688514353916</v>
+        <v>0.8435880389779075</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>267</v>
@@ -4247,19 +4247,19 @@
         <v>272656</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>257386</v>
+        <v>256335</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>285586</v>
+        <v>285550</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.8107317691247858</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.7653255685312756</v>
+        <v>0.7621994829062276</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.8491768774153479</v>
+        <v>0.8490703298699048</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>538</v>
@@ -4268,19 +4268,19 @@
         <v>528490</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>508013</v>
+        <v>505588</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>547410</v>
+        <v>546088</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.8070098225476851</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.7757410161266324</v>
+        <v>0.7720383775454657</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.8359005373993309</v>
+        <v>0.8338822454326646</v>
       </c>
     </row>
     <row r="14">
@@ -4297,19 +4297,19 @@
         <v>56520</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>43473</v>
+        <v>44047</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>70654</v>
+        <v>72214</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1774196226037484</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1364642345071528</v>
+        <v>0.1382678418665271</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2217896410259192</v>
+        <v>0.2266865115841116</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>62</v>
@@ -4318,19 +4318,19 @@
         <v>60779</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>48286</v>
+        <v>48614</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>75755</v>
+        <v>77459</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1807248668921572</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1435760615803037</v>
+        <v>0.1445526670416258</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2252540268366975</v>
+        <v>0.2303210019716508</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>119</v>
@@ -4339,19 +4339,19 @@
         <v>117299</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>99620</v>
+        <v>100614</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>139433</v>
+        <v>139648</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1791170230329449</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1521202290954451</v>
+        <v>0.1536390477404384</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2129160298849928</v>
+        <v>0.2132441258177658</v>
       </c>
     </row>
     <row r="15">
@@ -4443,19 +4443,19 @@
         <v>15039</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>8585</v>
+        <v>9116</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>23872</v>
+        <v>25794</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.04065118872202926</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02320479702613691</v>
+        <v>0.0246391618180747</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.06452483004390046</v>
+        <v>0.06972082012861151</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>18</v>
@@ -4464,19 +4464,19 @@
         <v>18766</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>11480</v>
+        <v>12290</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>28510</v>
+        <v>29121</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.04845471085980015</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02964210191281187</v>
+        <v>0.03173357161480489</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.07361586449260955</v>
+        <v>0.07519266932252565</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>32</v>
@@ -4485,19 +4485,19 @@
         <v>33805</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>23683</v>
+        <v>23343</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>47189</v>
+        <v>46207</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.04464218700208256</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.03127452714108433</v>
+        <v>0.03082656108241396</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.06231664292262472</v>
+        <v>0.06101989815373222</v>
       </c>
     </row>
     <row r="17">
@@ -4514,19 +4514,19 @@
         <v>228259</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>208933</v>
+        <v>208990</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>246604</v>
+        <v>247690</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.6169749066065219</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.56473812726146</v>
+        <v>0.5648923341111098</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6665623397556055</v>
+        <v>0.6694983155988792</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>227</v>
@@ -4535,19 +4535,19 @@
         <v>241808</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>219123</v>
+        <v>221652</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>260090</v>
+        <v>260779</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6243698088797826</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.5657949085761987</v>
+        <v>0.5723245503447717</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6715769818579305</v>
+        <v>0.6733558394648644</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>444</v>
@@ -4556,19 +4556,19 @@
         <v>470066</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>440873</v>
+        <v>442779</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>498149</v>
+        <v>499162</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6207569221800916</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.5822054487356508</v>
+        <v>0.5847226790732234</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6578427629016914</v>
+        <v>0.6591799442137468</v>
       </c>
     </row>
     <row r="18">
@@ -4585,19 +4585,19 @@
         <v>126666</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>108403</v>
+        <v>107867</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>146071</v>
+        <v>145099</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.3423739046714488</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2930096457519839</v>
+        <v>0.2915597352007098</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3948247626409152</v>
+        <v>0.3921970957840338</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>113</v>
@@ -4606,19 +4606,19 @@
         <v>126710</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>108935</v>
+        <v>107583</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>147242</v>
+        <v>145911</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.3271754802604174</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2812791815116474</v>
+        <v>0.2777888354603674</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3801915655501748</v>
+        <v>0.3767564543185726</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>236</v>
@@ -4627,19 +4627,19 @@
         <v>253376</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>227189</v>
+        <v>224177</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>282029</v>
+        <v>281211</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.3346008908178258</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.3000194375742878</v>
+        <v>0.2960422933159098</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3724404165684791</v>
+        <v>0.3713599425119594</v>
       </c>
     </row>
     <row r="19">
@@ -4731,19 +4731,19 @@
         <v>2952</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>937</v>
+        <v>927</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>8077</v>
+        <v>7936</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.01397468567569847</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.004435681870643063</v>
+        <v>0.004389313721164952</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.03824163577709216</v>
+        <v>0.03757067766003985</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>5</v>
@@ -4752,19 +4752,19 @@
         <v>4667</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1797</v>
+        <v>1810</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>10344</v>
+        <v>10487</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.02134925302607362</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.008223187873727939</v>
+        <v>0.008280688786262379</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.04732055950719766</v>
+        <v>0.04797646216612222</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>8</v>
@@ -4773,19 +4773,19 @@
         <v>7618</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>3737</v>
+        <v>2999</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>14629</v>
+        <v>14362</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.01772516160901491</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.00869381679552177</v>
+        <v>0.006978477008664871</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.03403705644370381</v>
+        <v>0.03341539820762754</v>
       </c>
     </row>
     <row r="21">
@@ -4802,19 +4802,19 @@
         <v>189047</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>178697</v>
+        <v>178375</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>197333</v>
+        <v>196454</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.8950204141563444</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.8460195364633869</v>
+        <v>0.8444933038346445</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.9342496681074602</v>
+        <v>0.9300879840726548</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>197</v>
@@ -4823,19 +4823,19 @@
         <v>194259</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>184359</v>
+        <v>183894</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>202528</v>
+        <v>201928</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.888703421821105</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.8434137052848784</v>
+        <v>0.8412862614086606</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.9265320044923669</v>
+        <v>0.9237891983469539</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>387</v>
@@ -4844,19 +4844,19 @@
         <v>383306</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>370980</v>
+        <v>368685</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>393843</v>
+        <v>394998</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.8918077880321753</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.8631289707336288</v>
+        <v>0.8577900304046102</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.9163224979884954</v>
+        <v>0.9190102383952288</v>
       </c>
     </row>
     <row r="22">
@@ -4873,19 +4873,19 @@
         <v>19222</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>11603</v>
+        <v>12516</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>28423</v>
+        <v>29632</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.09100490016795711</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.05493146356138767</v>
+        <v>0.05925372533169582</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1345635399624302</v>
+        <v>0.1402874039333395</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>21</v>
@@ -4894,19 +4894,19 @@
         <v>19661</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>12580</v>
+        <v>12840</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>29370</v>
+        <v>29389</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.08994732515282142</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.05755232533618309</v>
+        <v>0.05873939944888027</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1343627501008318</v>
+        <v>0.1344513904914516</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>40</v>
@@ -4915,19 +4915,19 @@
         <v>38883</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>29077</v>
+        <v>28283</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>51406</v>
+        <v>52501</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.09046705035880981</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.06765052462794516</v>
+        <v>0.06580395673839361</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1196028626356662</v>
+        <v>0.1221489814538707</v>
       </c>
     </row>
     <row r="23">
@@ -5019,19 +5019,19 @@
         <v>90467</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>75744</v>
+        <v>76378</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>107089</v>
+        <v>106766</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.3438197991468724</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2878672060092267</v>
+        <v>0.2902751847645216</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.4069908880702598</v>
+        <v>0.4057652520478873</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>89</v>
@@ -5040,19 +5040,19 @@
         <v>94275</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>77942</v>
+        <v>78133</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>110079</v>
+        <v>111003</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.3451850771159261</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2853806559703362</v>
+        <v>0.286082770523319</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.4030509489787283</v>
+        <v>0.4064336759759092</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>178</v>
@@ -5061,19 +5061,19 @@
         <v>184742</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>162390</v>
+        <v>164944</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>209076</v>
+        <v>209599</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.3445151580982696</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.3028319559081881</v>
+        <v>0.3075941103219602</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.3898941307818554</v>
+        <v>0.3908685362931635</v>
       </c>
     </row>
     <row r="25">
@@ -5090,19 +5090,19 @@
         <v>66825</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>51710</v>
+        <v>53403</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>82648</v>
+        <v>80948</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2539668669502878</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1965233726395575</v>
+        <v>0.2029574929404922</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3141058157365384</v>
+        <v>0.3076429716208458</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>62</v>
@@ -5111,19 +5111,19 @@
         <v>65204</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>50994</v>
+        <v>51099</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>80928</v>
+        <v>78934</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2387427134394915</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1867124263909472</v>
+        <v>0.1870984640401943</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.296314829906816</v>
+        <v>0.2890131312150517</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>126</v>
@@ -5132,19 +5132,19 @@
         <v>132029</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>112725</v>
+        <v>111669</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>152568</v>
+        <v>150935</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2462129504137781</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2102141705770128</v>
+        <v>0.2082445174890236</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2845147920642075</v>
+        <v>0.2814694170413475</v>
       </c>
     </row>
     <row r="26">
@@ -5161,19 +5161,19 @@
         <v>105832</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>89846</v>
+        <v>90858</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>121351</v>
+        <v>121586</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.4022133339028399</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.3414615561762765</v>
+        <v>0.3453076437298374</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.4611956457963644</v>
+        <v>0.4620884357829164</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>112</v>
@@ -5182,19 +5182,19 @@
         <v>113636</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>97739</v>
+        <v>97861</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>132020</v>
+        <v>130412</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.4160722094445825</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.3578657977242301</v>
+        <v>0.3583160782376164</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.4833855452596416</v>
+        <v>0.4774977931678705</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>218</v>
@@ -5203,19 +5203,19 @@
         <v>219467</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>197344</v>
+        <v>195665</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>244114</v>
+        <v>241948</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.4092718914879523</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.3680147767339761</v>
+        <v>0.3648844565075455</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.4552340273638604</v>
+        <v>0.4511954787845365</v>
       </c>
     </row>
     <row r="27">
@@ -5307,19 +5307,19 @@
         <v>131899</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>112016</v>
+        <v>111384</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>152893</v>
+        <v>153494</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.2008947359520644</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1706105949188289</v>
+        <v>0.1696478685539729</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2328700106694444</v>
+        <v>0.2337858187972024</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>128</v>
@@ -5328,19 +5328,19 @@
         <v>136952</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>116910</v>
+        <v>116626</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>163438</v>
+        <v>160022</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1981094689391977</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.169117070732381</v>
+        <v>0.1687061768556305</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2364230635054885</v>
+        <v>0.2314823179048223</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>244</v>
@@ -5349,19 +5349,19 @@
         <v>268851</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>237965</v>
+        <v>239938</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>298927</v>
+        <v>299279</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1994662123610366</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1765513280545981</v>
+        <v>0.1780153662590047</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.2217803281547221</v>
+        <v>0.2220411304582629</v>
       </c>
     </row>
     <row r="29">
@@ -5378,19 +5378,19 @@
         <v>337088</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>310615</v>
+        <v>311088</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>365409</v>
+        <v>362972</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.5134162671531067</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.4730964467093502</v>
+        <v>0.4738164080064895</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.5565527604168671</v>
+        <v>0.5528414071827903</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>332</v>
@@ -5399,19 +5399,19 @@
         <v>352141</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>325251</v>
+        <v>327806</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>377684</v>
+        <v>379080</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.5093942081386164</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.470495760780716</v>
+        <v>0.4741923301945724</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.546343268445785</v>
+        <v>0.5483635126393439</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>635</v>
@@ -5420,19 +5420,19 @@
         <v>689229</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>650728</v>
+        <v>651464</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>729510</v>
+        <v>730140</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.5113534106441389</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.4827887057894469</v>
+        <v>0.4833350788209036</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.5412389265767176</v>
+        <v>0.5417061767188475</v>
       </c>
     </row>
     <row r="30">
@@ -5449,19 +5449,19 @@
         <v>187571</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>162841</v>
+        <v>164718</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>211430</v>
+        <v>211869</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2856889968948288</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2480228105255821</v>
+        <v>0.2508811821728341</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3220283213135507</v>
+        <v>0.3226964759788322</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>186</v>
@@ -5470,19 +5470,19 @@
         <v>202201</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>180521</v>
+        <v>177318</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>228029</v>
+        <v>227397</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.292496322922186</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.261135164890105</v>
+        <v>0.2565012601852905</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.329857666874904</v>
+        <v>0.3289445886502023</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>347</v>
@@ -5491,19 +5491,19 @@
         <v>389772</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>356164</v>
+        <v>352318</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>426544</v>
+        <v>425097</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2891803769948245</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2642456502519184</v>
+        <v>0.2613924454830742</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.316462281841031</v>
+        <v>0.3153887126675752</v>
       </c>
     </row>
     <row r="31">
@@ -5595,19 +5595,19 @@
         <v>5369</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>2039</v>
+        <v>2044</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>10883</v>
+        <v>11864</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.006895570146433567</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.002619013046175583</v>
+        <v>0.002625238015107293</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.01397822647186746</v>
+        <v>0.01523795934777987</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>8</v>
@@ -5616,19 +5616,19 @@
         <v>8630</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>4151</v>
+        <v>4251</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>15900</v>
+        <v>17243</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.01044532702575792</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.005024884949631717</v>
+        <v>0.005145778931752699</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.0192455924662398</v>
+        <v>0.02087052360050004</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>13</v>
@@ -5637,19 +5637,19 @@
         <v>13998</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>7466</v>
+        <v>8129</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>23003</v>
+        <v>22928</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.008723077235396816</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.004652495037333563</v>
+        <v>0.005065409167483543</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.01433456877380797</v>
+        <v>0.0142872898753604</v>
       </c>
     </row>
     <row r="33">
@@ -5666,19 +5666,19 @@
         <v>498322</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>471424</v>
+        <v>469814</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>525067</v>
+        <v>523224</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.6400374701516723</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.6054901917599417</v>
+        <v>0.6034221705788495</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.674388260423225</v>
+        <v>0.6720210073600045</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>467</v>
@@ -5687,19 +5687,19 @@
         <v>509297</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>479968</v>
+        <v>483004</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>540597</v>
+        <v>540818</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.6164576861151754</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.5809570933486701</v>
+        <v>0.5846327502015719</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.6543434174133471</v>
+        <v>0.6546111712165626</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>948</v>
@@ -5708,19 +5708,19 @@
         <v>1007619</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>967615</v>
+        <v>968935</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>1048101</v>
+        <v>1046003</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.6278979845621345</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.6029690266029697</v>
+        <v>0.6037920112980856</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.6531241011689511</v>
+        <v>0.6518170193159933</v>
       </c>
     </row>
     <row r="34">
@@ -5737,19 +5737,19 @@
         <v>274892</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>248005</v>
+        <v>249850</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>301608</v>
+        <v>303244</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.3530669597018941</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.3185340320901114</v>
+        <v>0.3209029328581064</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.3873809061530151</v>
+        <v>0.389481521451701</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>280</v>
@@ -5758,19 +5758,19 @@
         <v>308240</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>276990</v>
+        <v>277158</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>337336</v>
+        <v>334985</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.3730969868590667</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.3352710893406425</v>
+        <v>0.3354748308136489</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.4083139811748148</v>
+        <v>0.4054687194990671</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>544</v>
@@ -5779,19 +5779,19 @@
         <v>583132</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>542534</v>
+        <v>544179</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>623401</v>
+        <v>622440</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.3633789382024687</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.3380799456079722</v>
+        <v>0.3391049633293414</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.3884722234802713</v>
+        <v>0.3878732981949643</v>
       </c>
     </row>
     <row r="35">
@@ -5883,19 +5883,19 @@
         <v>533571</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>488021</v>
+        <v>492647</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>582663</v>
+        <v>578845</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.1571938985939024</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.1437744804225518</v>
+        <v>0.1451373952279078</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.1716566963735141</v>
+        <v>0.1705318568377573</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>486</v>
@@ -5904,19 +5904,19 @@
         <v>514794</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>474258</v>
+        <v>472754</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>559323</v>
+        <v>554661</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.1452357703090898</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.1337995162809068</v>
+        <v>0.1333751842801375</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.1577984943530133</v>
+        <v>0.1564832178878363</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>973</v>
@@ -5925,19 +5925,19 @@
         <v>1048365</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>989118</v>
+        <v>986310</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>1114903</v>
+        <v>1109008</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.1510854181844992</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.142546954119912</v>
+        <v>0.1421422505780028</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.160674452504115</v>
+        <v>0.1598248832254253</v>
       </c>
     </row>
     <row r="37">
@@ -5954,19 +5954,19 @@
         <v>1796426</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>1737989</v>
+        <v>1733991</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>1855677</v>
+        <v>1852082</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.5292400525180573</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.5120241060285695</v>
+        <v>0.5108463152860344</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.5466957648132231</v>
+        <v>0.5456368302564469</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>1752</v>
@@ -5975,19 +5975,19 @@
         <v>1846836</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>1791741</v>
+        <v>1785722</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>1904778</v>
+        <v>1909830</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.5210365309239655</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.5054929266296825</v>
+        <v>0.5037947504817148</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.5373833892782369</v>
+        <v>0.5388086421735229</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>3489</v>
@@ -5996,19 +5996,19 @@
         <v>3643262</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>3564078</v>
+        <v>3556077</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>3729625</v>
+        <v>3729663</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.5250495095039579</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.5136379400144804</v>
+        <v>0.5124847930156491</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.5374958019189193</v>
+        <v>0.5375012762103101</v>
       </c>
     </row>
     <row r="38">
@@ -6025,19 +6025,19 @@
         <v>1064353</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>1010576</v>
+        <v>1011275</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>1117210</v>
+        <v>1122178</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.3135660488880403</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.297723059700196</v>
+        <v>0.2979289673806821</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.3291381278155804</v>
+        <v>0.3306016851538794</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>1100</v>
@@ -6046,19 +6046,19 @@
         <v>1182912</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>1127427</v>
+        <v>1121299</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>1237127</v>
+        <v>1239261</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.3337276987669447</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.3180741037569381</v>
+        <v>0.3163453277571637</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.3490231669312578</v>
+        <v>0.3496250565594657</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>2107</v>
@@ -6067,19 +6067,19 @@
         <v>2247265</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>2169572</v>
+        <v>2166454</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>2326114</v>
+        <v>2327530</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.3238650723115429</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.3126683080654864</v>
+        <v>0.3122189984256251</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.3352284865348037</v>
+        <v>0.3354324656148778</v>
       </c>
     </row>
     <row r="39">
@@ -6415,19 +6415,19 @@
         <v>78378</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>62835</v>
+        <v>61832</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>94314</v>
+        <v>95517</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2458192805409752</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1970693497381043</v>
+        <v>0.1939239643906053</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.295798864063243</v>
+        <v>0.299571240089912</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>113</v>
@@ -6436,19 +6436,19 @@
         <v>68293</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>55702</v>
+        <v>56744</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>80810</v>
+        <v>80923</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2160749416958556</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1762370461299219</v>
+        <v>0.1795350001971883</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2556791989341101</v>
+        <v>0.2560350927679628</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>189</v>
@@ -6457,19 +6457,19 @@
         <v>146671</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>125774</v>
+        <v>126355</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>169112</v>
+        <v>168499</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.231012339065297</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1980989998417194</v>
+        <v>0.1990138926127883</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2663570723389375</v>
+        <v>0.2653914547255944</v>
       </c>
     </row>
     <row r="5">
@@ -6486,19 +6486,19 @@
         <v>124748</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>106414</v>
+        <v>107405</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>143547</v>
+        <v>143820</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.3912487807034993</v>
+        <v>0.3912487807034994</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3337479263524959</v>
+        <v>0.3368559074260089</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.450210165984372</v>
+        <v>0.4510665225120055</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>249</v>
@@ -6507,19 +6507,19 @@
         <v>143956</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>128933</v>
+        <v>128757</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>158018</v>
+        <v>158770</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.455470256012297</v>
+        <v>0.4554702560122969</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.4079358470549667</v>
+        <v>0.407379431307158</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4999608706611456</v>
+        <v>0.5023403146030444</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>381</v>
@@ -6528,19 +6528,19 @@
         <v>268704</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>246014</v>
+        <v>246980</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>292799</v>
+        <v>294481</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.4232186836598432</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3874813381199191</v>
+        <v>0.3890022686043751</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4611684517932098</v>
+        <v>0.4638186169206573</v>
       </c>
     </row>
     <row r="6">
@@ -6557,19 +6557,19 @@
         <v>115719</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>100188</v>
+        <v>98515</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>134232</v>
+        <v>137089</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.3629319387555254</v>
+        <v>0.3629319387555255</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.3142216306766903</v>
+        <v>0.3089747703376495</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.4209939013383901</v>
+        <v>0.4299562326542339</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>176</v>
@@ -6578,19 +6578,19 @@
         <v>103812</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>91594</v>
+        <v>90667</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>117641</v>
+        <v>118054</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.3284548022918474</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2897999470459229</v>
+        <v>0.2868655911535197</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3722103428597469</v>
+        <v>0.3735175367052934</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>299</v>
@@ -6599,19 +6599,19 @@
         <v>219531</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>198196</v>
+        <v>198660</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>242993</v>
+        <v>243806</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.3457689772748598</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.3121656867356862</v>
+        <v>0.3128967926488007</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3827225010040309</v>
+        <v>0.3840030597742579</v>
       </c>
     </row>
     <row r="7">
@@ -6703,19 +6703,19 @@
         <v>58667</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>42875</v>
+        <v>42500</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>77876</v>
+        <v>77555</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1105581397872387</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.08079810533719708</v>
+        <v>0.08009125771997036</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1467559026075323</v>
+        <v>0.1461520987546376</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>80</v>
@@ -6724,19 +6724,19 @@
         <v>56708</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>45850</v>
+        <v>45106</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>70219</v>
+        <v>69376</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.103766295749494</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.08389766905294316</v>
+        <v>0.08253720632058949</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1284901740657055</v>
+        <v>0.1269473724410262</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>125</v>
@@ -6745,19 +6745,19 @@
         <v>115375</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>95695</v>
+        <v>96111</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>139064</v>
+        <v>138420</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1071122555874894</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.08884147692523869</v>
+        <v>0.08922763972654811</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1291049295522401</v>
+        <v>0.128506650382736</v>
       </c>
     </row>
     <row r="9">
@@ -6774,19 +6774,19 @@
         <v>443839</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>420937</v>
+        <v>420936</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>462812</v>
+        <v>463460</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.8364105636460142</v>
+        <v>0.8364105636460143</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.7932518888732789</v>
+        <v>0.7932496932500198</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.8721661547530987</v>
+        <v>0.8733864192250083</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>610</v>
@@ -6795,19 +6795,19 @@
         <v>469180</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>454183</v>
+        <v>453307</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>481507</v>
+        <v>483382</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.858527517500576</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.8310852957105952</v>
+        <v>0.8294822379771523</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.8810833589975386</v>
+        <v>0.8845155528158241</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>928</v>
@@ -6816,19 +6816,19 @@
         <v>913019</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>884637</v>
+        <v>887014</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>936559</v>
+        <v>935553</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.8476317373670951</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.8212822769506549</v>
+        <v>0.8234895072720314</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.8694860936225663</v>
+        <v>0.8685519326645423</v>
       </c>
     </row>
     <row r="10">
@@ -6845,19 +6845,19 @@
         <v>28141</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>16415</v>
+        <v>15828</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>44596</v>
+        <v>43720</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.05303129656674695</v>
+        <v>0.05303129656674694</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03093311008567776</v>
+        <v>0.02982842848963106</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.08403991933144593</v>
+        <v>0.08238975188750312</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>27</v>
@@ -6866,19 +6866,19 @@
         <v>20606</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>14010</v>
+        <v>13511</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>29946</v>
+        <v>29949</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.03770618674993002</v>
+        <v>0.03770618674993001</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02563701971420248</v>
+        <v>0.02472312536645932</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.05479690204053366</v>
+        <v>0.0548021856562723</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>46</v>
@@ -6887,19 +6887,19 @@
         <v>48747</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>35333</v>
+        <v>35800</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>66601</v>
+        <v>66452</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.04525600704541564</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03280257524982788</v>
+        <v>0.03323659023305533</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.0618314850380736</v>
+        <v>0.06169335136906921</v>
       </c>
     </row>
     <row r="11">
@@ -6991,19 +6991,19 @@
         <v>13954</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>8220</v>
+        <v>7724</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>23021</v>
+        <v>23786</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.04431204282638476</v>
+        <v>0.04431204282638475</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.02610273635148049</v>
+        <v>0.02452649148484672</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.07310248996263068</v>
+        <v>0.07553210320041767</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>15</v>
@@ -7012,19 +7012,19 @@
         <v>10041</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>5919</v>
+        <v>5599</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>16574</v>
+        <v>16022</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.02817378155769214</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.01660855095266588</v>
+        <v>0.01571047429676983</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.04650660489290188</v>
+        <v>0.04495648232106698</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>29</v>
@@ -7033,19 +7033,19 @@
         <v>23995</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>15495</v>
+        <v>15795</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>34600</v>
+        <v>34327</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.03574438377910917</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.02308270559924164</v>
+        <v>0.02352928133051902</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.05154234568288248</v>
+        <v>0.05113598619141693</v>
       </c>
     </row>
     <row r="13">
@@ -7062,19 +7062,19 @@
         <v>223622</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>207882</v>
+        <v>205938</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>238137</v>
+        <v>238300</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.7101184710920821</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.6601369712091332</v>
+        <v>0.653963012269797</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.7562111295230005</v>
+        <v>0.7567303849746593</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>395</v>
@@ -7083,19 +7083,19 @@
         <v>259747</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>244286</v>
+        <v>245274</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>271981</v>
+        <v>273105</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.7288462301576475</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.6854640403951048</v>
+        <v>0.6882357552115841</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.7631746292816727</v>
+        <v>0.7663300137321697</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>655</v>
@@ -7104,19 +7104,19 @@
         <v>483369</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>462614</v>
+        <v>461591</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>505030</v>
+        <v>505444</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.7200608714363224</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.689143537141361</v>
+        <v>0.6876193014760511</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.752328853025512</v>
+        <v>0.7529450782223773</v>
       </c>
     </row>
     <row r="14">
@@ -7133,19 +7133,19 @@
         <v>77332</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>63483</v>
+        <v>63801</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>91742</v>
+        <v>94898</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2455694860815331</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2015919406569932</v>
+        <v>0.2026017906402248</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2913305975458983</v>
+        <v>0.3013509043227266</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>126</v>
@@ -7154,19 +7154,19 @@
         <v>86593</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>74614</v>
+        <v>73808</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>101318</v>
+        <v>101504</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2429799882846604</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2093655209086446</v>
+        <v>0.207104056306948</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2842974394421943</v>
+        <v>0.2848187619592261</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>211</v>
@@ -7175,19 +7175,19 @@
         <v>163925</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>142053</v>
+        <v>144569</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>183988</v>
+        <v>183585</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2441947447845684</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2116116191525544</v>
+        <v>0.2153596919321948</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2740815754631106</v>
+        <v>0.2734820472244665</v>
       </c>
     </row>
     <row r="15">
@@ -7279,19 +7279,19 @@
         <v>15780</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>7197</v>
+        <v>7173</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>30097</v>
+        <v>28695</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.04228935923167804</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01928669620641349</v>
+        <v>0.01922434733360647</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.08065823390234361</v>
+        <v>0.07690113969367739</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>30</v>
@@ -7300,19 +7300,19 @@
         <v>22463</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>14827</v>
+        <v>15341</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>37116</v>
+        <v>36896</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.05323482010162327</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.03513890181170511</v>
+        <v>0.03635751279702757</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.08796050042786141</v>
+        <v>0.08743885099046594</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>40</v>
@@ -7321,19 +7321,19 @@
         <v>38243</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>25661</v>
+        <v>25471</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>54434</v>
+        <v>56236</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.04809809214643511</v>
+        <v>0.0480980921464351</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.0322736952593153</v>
+        <v>0.03203421669469124</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.06846183666975407</v>
+        <v>0.07072765959744121</v>
       </c>
     </row>
     <row r="17">
@@ -7350,19 +7350,19 @@
         <v>158463</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>132572</v>
+        <v>135673</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>181018</v>
+        <v>184665</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.4246689591194427</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3552817975610804</v>
+        <v>0.3635935869081992</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.4851150233749922</v>
+        <v>0.4948873039010079</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>298</v>
@@ -7371,19 +7371,19 @@
         <v>204872</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>185841</v>
+        <v>186486</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>224442</v>
+        <v>224056</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.4855227876882323</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.4404210976722533</v>
+        <v>0.4419507143586812</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.5319022570134794</v>
+        <v>0.5309881394445799</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>421</v>
@@ -7392,19 +7392,19 @@
         <v>363335</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>335158</v>
+        <v>332800</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>395542</v>
+        <v>394366</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.4569639571278985</v>
+        <v>0.4569639571278984</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.4215256218307421</v>
+        <v>0.4185601292645477</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.4974695537754545</v>
+        <v>0.4959909585919591</v>
       </c>
     </row>
     <row r="18">
@@ -7421,19 +7421,19 @@
         <v>198902</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>175352</v>
+        <v>172729</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>222676</v>
+        <v>223817</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.5330416816488793</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.4699302587067941</v>
+        <v>0.4628997781322763</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.5967559296665111</v>
+        <v>0.5998115421874907</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>271</v>
@@ -7442,19 +7442,19 @@
         <v>194626</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>174414</v>
+        <v>175812</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>213163</v>
+        <v>213871</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.4612423922101445</v>
+        <v>0.4612423922101446</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.4133411939763346</v>
+        <v>0.4166555960019305</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.5051727590144215</v>
+        <v>0.5068491711490979</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>430</v>
@@ -7463,19 +7463,19 @@
         <v>393529</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>362752</v>
+        <v>362116</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>425029</v>
+        <v>423541</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.4949379507256665</v>
+        <v>0.4949379507256663</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.4562307415624337</v>
+        <v>0.4554310289800503</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.534555571916756</v>
+        <v>0.5326836645201914</v>
       </c>
     </row>
     <row r="19">
@@ -7567,19 +7567,19 @@
         <v>2943</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>723</v>
+        <v>733</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>7983</v>
+        <v>7975</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.0143084624546749</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.003514616147687816</v>
+        <v>0.003563117812270948</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.03881341912830864</v>
+        <v>0.03877478435446926</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>2</v>
@@ -7591,7 +7591,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>2695</v>
+        <v>2662</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.003843890213127037</v>
@@ -7600,7 +7600,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.01177220994526761</v>
+        <v>0.01162828600441852</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>5</v>
@@ -7609,19 +7609,19 @@
         <v>3823</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1320</v>
+        <v>1164</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>9761</v>
+        <v>8814</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.00879621630892607</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.003038261080636841</v>
+        <v>0.002679429829520557</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.02246072437450685</v>
+        <v>0.02028142390826608</v>
       </c>
     </row>
     <row r="21">
@@ -7638,19 +7638,19 @@
         <v>201994</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>196567</v>
+        <v>196435</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>204493</v>
+        <v>204671</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.9821503265471484</v>
+        <v>0.9821503265471485</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.9557607622129027</v>
+        <v>0.955122454026493</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.9942992013346333</v>
+        <v>0.9951688482027548</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>480</v>
@@ -7659,19 +7659,19 @@
         <v>222584</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>219086</v>
+        <v>218719</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>225345</v>
+        <v>225533</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.9723305127537566</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.9570520354656631</v>
+        <v>0.9554479949440948</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.984392508708946</v>
+        <v>0.9852135089651334</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>755</v>
@@ -7680,19 +7680,19 @@
         <v>424577</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>417972</v>
+        <v>418565</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>428437</v>
+        <v>428572</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.9769777089298048</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.9617797219403736</v>
+        <v>0.9631434936777921</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.985860867178225</v>
+        <v>0.9861712489978138</v>
       </c>
     </row>
     <row r="22">
@@ -7712,7 +7712,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>3764</v>
+        <v>4452</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.003541210998176644</v>
@@ -7721,7 +7721,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.018302861118599</v>
+        <v>0.0216447579818198</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>13</v>
@@ -7730,19 +7730,19 @@
         <v>5454</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>2952</v>
+        <v>2878</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>8772</v>
+        <v>9380</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.02382559703311645</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01289499909335824</v>
+        <v>0.01257212835226091</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.03832029140309086</v>
+        <v>0.04097401294960707</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>14</v>
@@ -7751,19 +7751,19 @@
         <v>6182</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>3630</v>
+        <v>3312</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>10324</v>
+        <v>10130</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01422607476126914</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.008352495110752898</v>
+        <v>0.007622031451429765</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.0237568686437032</v>
+        <v>0.02331008648242944</v>
       </c>
     </row>
     <row r="23">
@@ -7855,19 +7855,19 @@
         <v>5590</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1747</v>
+        <v>2266</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>11838</v>
+        <v>13578</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.02064813508980664</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.006455299807591837</v>
+        <v>0.008371346974870977</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.04373056502185713</v>
+        <v>0.05015655621992524</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>10</v>
@@ -7876,19 +7876,19 @@
         <v>5488</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>2522</v>
+        <v>2804</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>10225</v>
+        <v>10604</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.02080818684863974</v>
+        <v>0.02080818684863973</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.009562499141679216</v>
+        <v>0.01063257822095701</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.03876646472471217</v>
+        <v>0.04020536667172807</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>16</v>
@@ -7897,19 +7897,19 @@
         <v>11078</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>6521</v>
+        <v>6614</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>18794</v>
+        <v>18554</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.02072711932370062</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.01220142444776977</v>
+        <v>0.01237441730986222</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.03516487057622272</v>
+        <v>0.0347158677927668</v>
       </c>
     </row>
     <row r="25">
@@ -7926,19 +7926,19 @@
         <v>152390</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>136577</v>
+        <v>137040</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>165795</v>
+        <v>166875</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.5629342729905968</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.5045204769371139</v>
+        <v>0.5062310796012216</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.6124510422846324</v>
+        <v>0.6164403571706767</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>271</v>
@@ -7947,19 +7947,19 @@
         <v>143110</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>129911</v>
+        <v>129032</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>155845</v>
+        <v>155080</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.5425978701599012</v>
+        <v>0.542597870159901</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.4925539399212455</v>
+        <v>0.4892215513354039</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.5908822679777521</v>
+        <v>0.5879793690528752</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>489</v>
@@ -7968,19 +7968,19 @@
         <v>295500</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>277150</v>
+        <v>274862</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>315214</v>
+        <v>314674</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.5528984245284948</v>
+        <v>0.5528984245284947</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.5185639556694492</v>
+        <v>0.5142819837919479</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.589783064760305</v>
+        <v>0.5887741767399305</v>
       </c>
     </row>
     <row r="26">
@@ -7997,19 +7997,19 @@
         <v>112727</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>99643</v>
+        <v>98710</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>129470</v>
+        <v>128271</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.4164175919195965</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.3680834408447811</v>
+        <v>0.3646377215150582</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.4782678060588039</v>
+        <v>0.4738352155014761</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>179</v>
@@ -8018,19 +8018,19 @@
         <v>115152</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>102336</v>
+        <v>102839</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>128070</v>
+        <v>128835</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.4365939429914592</v>
+        <v>0.436593942991459</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.3880029685987282</v>
+        <v>0.3899125355008091</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.4855725973901083</v>
+        <v>0.4884751528636239</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>326</v>
@@ -8039,19 +8039,19 @@
         <v>227879</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>208662</v>
+        <v>208675</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>246227</v>
+        <v>249107</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.4263744561478047</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.3904178279444865</v>
+        <v>0.3904422670993416</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.4607055578621364</v>
+        <v>0.4660930416132048</v>
       </c>
     </row>
     <row r="27">
@@ -8143,19 +8143,19 @@
         <v>240246</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>210772</v>
+        <v>213700</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>272002</v>
+        <v>272502</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.3338199944165989</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.2928656901605667</v>
+        <v>0.2969344230106152</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.3779454265899869</v>
+        <v>0.3786401394517817</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>334</v>
@@ -8164,19 +8164,19 @@
         <v>267239</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>242884</v>
+        <v>243496</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>290523</v>
+        <v>293568</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.3461393311822499</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.3145932415294539</v>
+        <v>0.315386498811286</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.3762975900702904</v>
+        <v>0.3802409721670334</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>533</v>
@@ -8185,19 +8185,19 @@
         <v>507485</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>470268</v>
+        <v>470866</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>547064</v>
+        <v>547658</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.3401959064534901</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.3152474357806259</v>
+        <v>0.3156480536826592</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.3667278915257376</v>
+        <v>0.3671257871545822</v>
       </c>
     </row>
     <row r="29">
@@ -8214,19 +8214,19 @@
         <v>221548</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>194496</v>
+        <v>192098</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>250736</v>
+        <v>253732</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.30783937895074</v>
+        <v>0.3078393789507399</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2702502054632683</v>
+        <v>0.2669192136743253</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3483964103935389</v>
+        <v>0.3525594031289458</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>291</v>
@@ -8235,19 +8235,19 @@
         <v>231934</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>208141</v>
+        <v>208417</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>253455</v>
+        <v>258081</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.3004105162616523</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2695922731963996</v>
+        <v>0.2699507574917655</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3282851003853142</v>
+        <v>0.3342772437301313</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>470</v>
@@ -8256,19 +8256,19 @@
         <v>453482</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>412878</v>
+        <v>414460</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>488504</v>
+        <v>488966</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.3039945473708588</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2767751856788965</v>
+        <v>0.2778358999598569</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.3274715330783944</v>
+        <v>0.3277814107492</v>
       </c>
     </row>
     <row r="30">
@@ -8285,19 +8285,19 @@
         <v>257893</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>226829</v>
+        <v>227435</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>289386</v>
+        <v>285504</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.3583406266326613</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.3151768059746259</v>
+        <v>0.3160197048805156</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.4021003752714819</v>
+        <v>0.3967064097125954</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>335</v>
@@ -8306,19 +8306,19 @@
         <v>272884</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>249595</v>
+        <v>245475</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>298200</v>
+        <v>297295</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.3534501525560976</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.3232855934811569</v>
+        <v>0.3179492410692812</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.386240804529607</v>
+        <v>0.3850687983488856</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>556</v>
@@ -8327,19 +8327,19 @@
         <v>530777</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>492885</v>
+        <v>493272</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>571809</v>
+        <v>568529</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.355809546175651</v>
+        <v>0.3558095461756511</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.3304088632137578</v>
+        <v>0.3306681363690806</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.3833158737769424</v>
+        <v>0.3811171313359264</v>
       </c>
     </row>
     <row r="31">
@@ -8431,19 +8431,19 @@
         <v>18719</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>10762</v>
+        <v>10429</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>30043</v>
+        <v>29248</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.02345534647872593</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.01348437767384211</v>
+        <v>0.01306830582093791</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.03764426831687701</v>
+        <v>0.03664809134039638</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>28</v>
@@ -8452,19 +8452,19 @@
         <v>25017</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>15673</v>
+        <v>16907</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>36509</v>
+        <v>35845</v>
       </c>
       <c r="N32" s="6" t="n">
-        <v>0.03009330510829828</v>
+        <v>0.03009330510829827</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.01885288274973315</v>
+        <v>0.02033695765476837</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.04391649716198801</v>
+        <v>0.04311719442809826</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>44</v>
@@ -8473,19 +8473,19 @@
         <v>43737</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>31391</v>
+        <v>31742</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>58852</v>
+        <v>58972</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.02684207315058412</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.01926519149430396</v>
+        <v>0.01948096469089026</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.0361188828916177</v>
+        <v>0.03619243374615239</v>
       </c>
     </row>
     <row r="33">
@@ -8502,19 +8502,19 @@
         <v>725830</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>707703</v>
+        <v>706808</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>740725</v>
+        <v>741409</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.9094792180174326</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.8867659608376801</v>
+        <v>0.8856438022134211</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.9281434870401719</v>
+        <v>0.9290005666375641</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>955</v>
@@ -8523,19 +8523,19 @@
         <v>747815</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>732251</v>
+        <v>733144</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>762557</v>
+        <v>763157</v>
       </c>
       <c r="N33" s="6" t="n">
-        <v>0.89953910093027</v>
+        <v>0.8995391009302702</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.8808182058912738</v>
+        <v>0.881891822139655</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.9172719172985759</v>
+        <v>0.9179942807580298</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>1652</v>
@@ -8544,19 +8544,19 @@
         <v>1473645</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>1448709</v>
+        <v>1450410</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>1496520</v>
+        <v>1495823</v>
       </c>
       <c r="U33" s="6" t="n">
-        <v>0.904407710112802</v>
+        <v>0.9044077101128021</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.8891041130602406</v>
+        <v>0.890147853682877</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.9184466582602415</v>
+        <v>0.9180187606760654</v>
       </c>
     </row>
     <row r="34">
@@ -8573,19 +8573,19 @@
         <v>53523</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>41384</v>
+        <v>40756</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>70518</v>
+        <v>71596</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>0.06706543550384143</v>
+        <v>0.06706543550384142</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.05185485064553451</v>
+        <v>0.05106770900842455</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.08836017957350645</v>
+        <v>0.08971126770542023</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>79</v>
@@ -8594,19 +8594,19 @@
         <v>58499</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>47257</v>
+        <v>46282</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>70458</v>
+        <v>71446</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.07036759396143165</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.05684494541168502</v>
+        <v>0.05567271520874059</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.08475312476379665</v>
+        <v>0.08594152453329366</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>128</v>
@@ -8615,19 +8615,19 @@
         <v>112022</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>93549</v>
+        <v>93603</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>132705</v>
+        <v>132774</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.0687502167366138</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.05741324074887441</v>
+        <v>0.05744594061118487</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.08144376764713178</v>
+        <v>0.08148640290023697</v>
       </c>
     </row>
     <row r="35">
@@ -8719,19 +8719,19 @@
         <v>434277</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>392638</v>
+        <v>391560</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>478454</v>
+        <v>479658</v>
       </c>
       <c r="G36" s="6" t="n">
-        <v>0.1229663485643554</v>
+        <v>0.1229663485643555</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.1111760838501588</v>
+        <v>0.1108708009300326</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.13547492836414</v>
+        <v>0.1358160185205469</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>612</v>
@@ -8740,19 +8740,19 @@
         <v>456129</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>417841</v>
+        <v>421945</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>492617</v>
+        <v>492731</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.1220590328280833</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.1118132848352474</v>
+        <v>0.1129115190966339</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.1318231770660227</v>
+        <v>0.1318537263790713</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>981</v>
@@ -8761,19 +8761,19 @@
         <v>890406</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>831077</v>
+        <v>836770</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>949035</v>
+        <v>952940</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.1224998786541941</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.1143374943375074</v>
+        <v>0.1151206990279705</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.1305657983150973</v>
+        <v>0.1311030444894251</v>
       </c>
     </row>
     <row r="37">
@@ -8790,19 +8790,19 @@
         <v>2252433</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>2185619</v>
+        <v>2182269</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>2318807</v>
+        <v>2312942</v>
       </c>
       <c r="G37" s="6" t="n">
-        <v>0.6377802795096269</v>
+        <v>0.637780279509627</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.6188618112408607</v>
+        <v>0.6179132312479461</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.6565740354612595</v>
+        <v>0.6549133636397803</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>3549</v>
@@ -8811,19 +8811,19 @@
         <v>2423199</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>2367880</v>
+        <v>2367512</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>2472263</v>
+        <v>2474469</v>
       </c>
       <c r="N37" s="6" t="n">
-        <v>0.648442232991334</v>
+        <v>0.6484422329913339</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.6336390800971557</v>
+        <v>0.6335406659773731</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.6615716484161632</v>
+        <v>0.6621619691189966</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>5751</v>
@@ -8832,19 +8832,19 @@
         <v>4675633</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>4593496</v>
+        <v>4582970</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>4759320</v>
+        <v>4753235</v>
       </c>
       <c r="U37" s="6" t="n">
-        <v>0.6432618117744489</v>
+        <v>0.6432618117744487</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.6319615808443274</v>
+        <v>0.6305134935422196</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.6547752966439141</v>
+        <v>0.6539381483351369</v>
       </c>
     </row>
     <row r="38">
@@ -8861,19 +8861,19 @@
         <v>844965</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>784081</v>
+        <v>789174</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>903175</v>
+        <v>902362</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>0.2392533719260175</v>
+        <v>0.2392533719260176</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.2220137386534144</v>
+        <v>0.2234559391238113</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.2557356276624496</v>
+        <v>0.2555054014308126</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>1206</v>
@@ -8882,19 +8882,19 @@
         <v>857626</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>814417</v>
+        <v>812348</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>907682</v>
+        <v>906749</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.2294987341805829</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.217935939777414</v>
+        <v>0.2173823319059277</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.2428936675694281</v>
+        <v>0.2426437741523114</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>2010</v>
@@ -8903,19 +8903,19 @@
         <v>1702592</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>1630303</v>
+        <v>1637321</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>1778467</v>
+        <v>1779020</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.2342383095713572</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.2242930285859297</v>
+        <v>0.2252585714403129</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.2446769698463345</v>
+        <v>0.2447530887087991</v>
       </c>
     </row>
     <row r="39">
